--- a/resources/Lecture 06 - P2.xlsx
+++ b/resources/Lecture 06 - P2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ioasiitm-my.sharepoint.com/personal/anmpahwa_icsrpis_iitm_ac_in/Documents/Academia/IIT Madras/Teaching/CE5972/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1328" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E20585D1-9B42-4DC0-8812-35C9ADEF8AED}"/>
+  <xr:revisionPtr revIDLastSave="1329" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{695FD00D-F1CC-4A02-BDE6-CF88F1685060}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7950" yWindow="3675" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>x</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>Constraint Parameter (Coefficients)</t>
-  </si>
-  <si>
-    <t>Slack</t>
   </si>
   <si>
     <t>Constraint Parameter (Limits)</t>
@@ -485,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -606,7 +603,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -668,9 +665,6 @@
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -682,10 +676,7 @@
         <f>B19</f>
         <v>1064.4853626951472</v>
       </c>
-      <c r="C28" s="3">
-        <f>A28-B28</f>
-        <v>105.51463730485284</v>
-      </c>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -696,10 +687,7 @@
         <f>B20</f>
         <v>46.448536269514719</v>
       </c>
-      <c r="C29" s="3">
-        <f>A29-B29</f>
-        <v>5.5514637304852812</v>
-      </c>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -710,10 +698,7 @@
         <f>B21</f>
         <v>16</v>
       </c>
-      <c r="C30" s="3">
-        <f>A30-B30</f>
-        <v>0</v>
-      </c>
+      <c r="C30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
